--- a/biology/Botanique/Stringybark/Stringybark.xlsx
+++ b/biology/Botanique/Stringybark/Stringybark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mot anglais stringybark (littéralement écorce filandreuse) sert à désigner indifféremment l'une ou l'autre des nombreuses espèces d'eucalyptus australiens qui ont une écorce épaisse et fibreuse. Comme tous les autres eucalyptus, les stringybarks appartiennent à la famille des Myrtacées. Dans certains régions très fertiles, certaines espèces (en particulier Eucalyptus obliqua) peuvent atteindre une hauteur importante, au‑delà de 80 mètres. Mais, en général, les stringybarks sont des arbres de taille moyenne (10 à 40 mètres de haut). 
